--- a/聚丙烯(PP)/eta/PP期货价格_月度数据.xlsx
+++ b/聚丙烯(PP)/eta/PP期货价格_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>6551.8</v>
+        <v>7164.2</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6637.2</v>
+        <v>6641.9</v>
       </c>
       <c r="C3" t="n">
-        <v>6652.9</v>
+        <v>6701</v>
       </c>
     </row>
     <row r="4">
